--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5415" windowWidth="14970" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14970" windowHeight="3870" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" r:id="rId1" sheetId="2"/>
-    <sheet name="Test Steps" r:id="rId2" sheetId="1"/>
-    <sheet name="Test Data" r:id="rId3" sheetId="3"/>
-    <sheet name="Settings" r:id="rId4" sheetId="4"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Caps" sheetId="5" r:id="rId4"/>
+    <sheet name="Settings" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Action_Keywords">Settings!$D$2:$D$8</definedName>
@@ -19,12 +20,12 @@
     <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:H15"/>
+  <oleSize ref="A1:H10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>Description</t>
   </si>
@@ -35,9 +36,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Navigate to website</t>
-  </si>
-  <si>
     <t>navigate</t>
   </si>
   <si>
@@ -74,33 +72,15 @@
     <t>TS_006</t>
   </si>
   <si>
-    <t>TS_007</t>
-  </si>
-  <si>
-    <t>TS_009</t>
-  </si>
-  <si>
     <t>testuser_1</t>
   </si>
   <si>
     <t>Test@123</t>
   </si>
   <si>
-    <t>Click on My Account button on the Top Right location</t>
-  </si>
-  <si>
-    <t>Enter the Username in the UserName field</t>
-  </si>
-  <si>
     <t>Click on Login button</t>
   </si>
   <si>
-    <t>Close the Browser</t>
-  </si>
-  <si>
-    <t>Open the Browser</t>
-  </si>
-  <si>
     <t>Login_01</t>
   </si>
   <si>
@@ -161,15 +141,6 @@
     <t>LogIn_Page</t>
   </si>
   <si>
-    <t>Wait for Some time</t>
-  </si>
-  <si>
-    <t>Click on LogOut button</t>
-  </si>
-  <si>
-    <t>Enter the Password in the Password field</t>
-  </si>
-  <si>
     <t>Page Object</t>
   </si>
   <si>
@@ -182,26 +153,85 @@
     <t>waitFor</t>
   </si>
   <si>
-    <t>testuser_3</t>
-  </si>
-  <si>
     <t>LogIn_02</t>
   </si>
   <si>
     <t>Login_02</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>appPackage</t>
+  </si>
+  <si>
+    <t>appActivity</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>com.healthsignz.consumer</t>
+  </si>
+  <si>
+    <t>com.healthsignz.consumer.SplashScreenActivity</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4723/wd/hub</t>
+  </si>
+  <si>
+    <t>Conquest</t>
+  </si>
+  <si>
+    <t>Launch App</t>
+  </si>
+  <si>
+    <t>Click on Sign In button</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>btn_SignIn</t>
+  </si>
+  <si>
+    <t>btn_UserId</t>
+  </si>
+  <si>
+    <t>txtbx_LogIn</t>
+  </si>
+  <si>
+    <t>emulator-5554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,28 +302,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -307,10 +342,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -468,7 +503,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -477,13 +512,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,7 +528,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -502,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -521,12 +556,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -557,7 +592,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -576,7 +611,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -588,7 +623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -597,113 +632,113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -712,317 +747,304 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>'Test Data'!D2</f>
-        <v>Mozilla</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>Conquest</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'Test Data'!B2</f>
+        <v>7795504063</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f>'Test Data'!B2</f>
-        <v>testuser_3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="str">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
         <f>'Test Data'!C2</f>
-        <v>Test@123</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
+        <v>12345</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D10" type="list">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E10" type="list">
-      <formula1>INDIRECT(D2)</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="1" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7795504063</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12345</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1031,32 +1053,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29.25" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1064,26 +1086,26 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1113,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1121,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1129,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,6 +1139,6 @@
       <c r="D8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>